--- a/misc/построчне.xlsx
+++ b/misc/построчне.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\DOC\_Personal\учеба\GITHUB\sf_44\sf_44\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91F0B743-CA90-4C0D-8AA3-180998D6FB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26102D74-4963-4278-BC83-B15221275960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25937F94-E088-4BF4-8E96-114108F5F66F}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="65">
   <si>
     <t>final</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +151,87 @@
   </si>
   <si>
     <t># Функции</t>
+  </si>
+  <si>
+    <t># 4. Фильтрация и соединение исходных данных</t>
+  </si>
+  <si>
+    <t># 3.1. Формируем выборку пользователей по условию задания</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t># 3.2 Фильтруем и слегка подобрабатываем датафреймы</t>
+  </si>
+  <si>
+    <t># 3.3 Соединяем. Вот с этим мы будем работать</t>
+  </si>
+  <si>
+    <t># Получился датафрейм следующего формата:</t>
+  </si>
+  <si>
+    <t># print ('events_combined')</t>
+  </si>
+  <si>
+    <t># display (df_describe (events_combined))</t>
+  </si>
+  <si>
+    <t>filtering_sample = ( events_df</t>
+  </si>
+  <si>
+    <t>    .query (f"event_type=='registration' &amp; start_time.dt.year==2018")</t>
+  </si>
+  <si>
+    <t>    ['user_id'].unique ()</t>
+  </si>
+  <si>
+    <t>events_df_filtered = ( events_df</t>
+  </si>
+  <si>
+    <t>    .query (f"user_id in @filtering_sample")</t>
+  </si>
+  <si>
+    <t>    .rename (columns={'id': 'event_id'})</t>
+  </si>
+  <si>
+    <t>purchase_df_filtered = ( purchase_df</t>
+  </si>
+  <si>
+    <t>    .rename (columns={'id': 'purchase_id', 'event_datetime': 'start_time'})</t>
+  </si>
+  <si>
+    <t>    .assign (**{'event_type': 'purchase'})</t>
+  </si>
+  <si>
+    <t>events_combined = \</t>
+  </si>
+  <si>
+    <t>(   pd.concat( [events_df_filtered, purchase_df_filtered], sort=False )</t>
+  </si>
+  <si>
+    <t>    .reset_index (drop=True)</t>
+  </si>
+  <si>
+    <t>    .sort_values (by='start_time')</t>
+  </si>
+  <si>
+    <t>    .astype</t>
+  </si>
+  <si>
+    <t>    ({  'selected_level':   pd.api.types.CategoricalDtype(categories=levels_arranged, ordered=True)</t>
+  </si>
+  <si>
+    <t>        , 'event_type':     pd.api.types.CategoricalDtype(categories=events_arranged, ordered=True)</t>
+  </si>
+  <si>
+    <t># 3. Фильтрация и соединение исходных данных</t>
+  </si>
+  <si>
+    <t>print ('events_combined')</t>
+  </si>
+  <si>
+    <t>display (df_describe (events_combined))</t>
   </si>
 </sst>
 </file>
@@ -203,17 +285,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -544,10 +616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CD3EB8-23C4-437C-A938-998C3FCB28B9}">
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -958,7 +1031,7 @@
         <v>8</v>
       </c>
       <c r="R28" t="b">
-        <f t="shared" ref="R28:R64" si="2">A28=M28</f>
+        <f t="shared" ref="R28:R91" si="2">A28=M28</f>
         <v>1</v>
       </c>
     </row>
@@ -1240,66 +1313,120 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
       <c r="J45" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M45" t="s">
+        <v>62</v>
+      </c>
       <c r="R45" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
       <c r="J46" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M46" t="s">
+        <v>39</v>
+      </c>
       <c r="R46" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
       <c r="J47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M47" t="s">
+        <v>46</v>
+      </c>
       <c r="R47" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
       <c r="J48" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M48" t="s">
+        <v>47</v>
+      </c>
       <c r="R48" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
       <c r="J49" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M49" t="s">
+        <v>48</v>
+      </c>
       <c r="R49" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
       <c r="J50" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M50" t="s">
+        <v>40</v>
+      </c>
       <c r="R50" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J51" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1309,57 +1436,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
       <c r="J52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M52" t="s">
+        <v>41</v>
+      </c>
       <c r="R52" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
       <c r="J53" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M53" t="s">
+        <v>49</v>
+      </c>
       <c r="R53" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
       <c r="J54" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M54" t="s">
+        <v>50</v>
+      </c>
       <c r="R54" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
       <c r="J55" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M55" t="s">
+        <v>51</v>
+      </c>
       <c r="R55" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
       <c r="J56" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M56" t="s">
+        <v>40</v>
+      </c>
       <c r="R56" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J57" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1369,57 +1541,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" t="s">
+        <v>52</v>
+      </c>
       <c r="J58" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M58" t="s">
+        <v>52</v>
+      </c>
       <c r="R58" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
       <c r="J59" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M59" t="s">
+        <v>50</v>
+      </c>
       <c r="R59" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" t="s">
+        <v>53</v>
+      </c>
       <c r="J60" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M60" t="s">
+        <v>53</v>
+      </c>
       <c r="R60" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" t="s">
+        <v>54</v>
+      </c>
       <c r="J61" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M61" t="s">
+        <v>54</v>
+      </c>
       <c r="R61" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" t="s">
+        <v>40</v>
+      </c>
       <c r="J62" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M62" t="s">
+        <v>40</v>
+      </c>
       <c r="R62" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J63" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1429,92 +1646,407 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
       <c r="J64" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M64" t="s">
+        <v>42</v>
+      </c>
       <c r="R64" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
       <c r="J65" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="M65" t="s">
+        <v>55</v>
+      </c>
+      <c r="R65" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" t="s">
+        <v>56</v>
+      </c>
       <c r="J66" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="M66" t="s">
+        <v>56</v>
+      </c>
+      <c r="R66" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" t="s">
+        <v>57</v>
+      </c>
       <c r="J67" t="b">
         <f t="shared" ref="J67:J76" si="3">A67=E67</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="M67" t="s">
+        <v>57</v>
+      </c>
+      <c r="R67" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" t="s">
+        <v>58</v>
+      </c>
       <c r="J68" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="M68" t="s">
+        <v>58</v>
+      </c>
+      <c r="R68" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" t="s">
+        <v>59</v>
+      </c>
       <c r="J69" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="M69" t="s">
+        <v>59</v>
+      </c>
+      <c r="R69" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" t="s">
+        <v>60</v>
+      </c>
       <c r="J70" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="M70" t="s">
+        <v>60</v>
+      </c>
+      <c r="R70" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" t="s">
+        <v>61</v>
+      </c>
       <c r="J71" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="M71" t="s">
+        <v>61</v>
+      </c>
+      <c r="R71" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
       <c r="J72" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="M72" t="s">
+        <v>9</v>
+      </c>
+      <c r="R72" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
+        <v>40</v>
+      </c>
       <c r="J73" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="M73" t="s">
+        <v>40</v>
+      </c>
+      <c r="R73" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J74" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="R74" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
       <c r="J75" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="M75" t="s">
+        <v>43</v>
+      </c>
+      <c r="R75" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
       <c r="J76" t="b">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M76" t="s">
+        <v>63</v>
+      </c>
+      <c r="R76" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" t="s">
+        <v>64</v>
+      </c>
+      <c r="R77" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R78" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R79" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R80" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R81" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R82" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R83" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R84" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R85" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R86" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R87" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R88" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R89" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R90" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R91" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R92" t="b">
+        <f t="shared" ref="R92:R101" si="4">A92=M92</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R93" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R94" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R95" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R96" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R97" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R98" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R99" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R100" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R101" t="b">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/misc/построчне.xlsx
+++ b/misc/построчне.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\DOC\_Personal\учеба\GITHUB\sf_44\sf_44\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26102D74-4963-4278-BC83-B15221275960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075CB129-38F9-4CF4-85E1-D759D3ABC606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25937F94-E088-4BF4-8E96-114108F5F66F}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="116">
   <si>
     <t>final</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +231,159 @@
   </si>
   <si>
     <t>display (df_describe (events_combined))</t>
+  </si>
+  <si>
+    <t># Подготовка к заполнению основной таблицы:</t>
+  </si>
+  <si>
+    <t># ad-hoc функции для заполнения параметров</t>
+  </si>
+  <si>
+    <t># Максимальный этап, до которого дошел пользователь</t>
+  </si>
+  <si>
+    <t># Время прохождения этапов:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 0. Дано: </t>
+  </si>
+  <si>
+    <t># * Задана очередность типов событий (списком).</t>
+  </si>
+  <si>
+    <t># * Для каждого пользователя получено время события каждого типа (пусто, если не проходил)</t>
+  </si>
+  <si>
+    <t># * За время события берется время ПЕРВОГО прохождения события данным пользователем (первого начала обучения, первого конца обучения)</t>
+  </si>
+  <si>
+    <t># 1. Каждому событию сопоставлено время предыдущего (по заданному выше порядку очередности) события, если непосредственно предшествующее отсутствует - берется ближайшее доступное</t>
+  </si>
+  <si>
+    <t># Т.е. если перед выбором уровня не было закончено обучение - берется начало обучения, если нет начала - берется регистрация.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># </t>
+  </si>
+  <si>
+    <t>    )</t>
+  </si>
+  <si>
+    <t># Классификация пользователей по статусу обучения - для вопросов 1 и 2</t>
+  </si>
+  <si>
+    <t>max_event_per_user = \</t>
+  </si>
+  <si>
+    <t>(events_combined</t>
+  </si>
+  <si>
+    <t>    .groupby (['user_id'],as_index=False)</t>
+  </si>
+  <si>
+    <t>    ['event_type'].max()</t>
+  </si>
+  <si>
+    <t>    .rename (columns={'event_type':'last_event'})</t>
+  </si>
+  <si>
+    <t>def get_event_gap (df):</t>
+  </si>
+  <si>
+    <t>    last_event_at_moment = \</t>
+  </si>
+  <si>
+    <t>    (   df['first'].fillna(pd.to_datetime(0))</t>
+  </si>
+  <si>
+    <t>        .groupby(['user_id']).cummax()</t>
+  </si>
+  <si>
+    <t>    previous_event = \</t>
+  </si>
+  <si>
+    <t>    (   last_event_at_moment.groupby(['user_id'])</t>
+  </si>
+  <si>
+    <t>        .shift(1)</t>
+  </si>
+  <si>
+    <t>    gap = df['first'] - previous_event</t>
+  </si>
+  <si>
+    <t>    return gap</t>
+  </si>
+  <si>
+    <t>def get_tutorial_status (df):</t>
+  </si>
+  <si>
+    <t>    status_array = np.select\</t>
+  </si>
+  <si>
+    <t>    (   condlist =      [df['count:tutorial_start']==0, df['count:tutorial_finish'] &gt; 0]</t>
+  </si>
+  <si>
+    <t>        , choicelist =  ['not started', 'finished']</t>
+  </si>
+  <si>
+    <t>        , default =     'not finished'        </t>
+  </si>
+  <si>
+    <t>    result = \</t>
+  </si>
+  <si>
+    <t>    (   pd.Series(data=status_array, index = df.index.unique())</t>
+  </si>
+  <si>
+    <t>        .astype (pd.api.types.CategoricalDtype(categories=tutorial_arranged, ordered=True))</t>
+  </si>
+  <si>
+    <t>    return result</t>
+  </si>
+  <si>
+    <t># Непосредственно создаем общую таблицу</t>
+  </si>
+  <si>
+    <t>    .assign</t>
+  </si>
+  <si>
+    <t># .head (20)</t>
+  </si>
+  <si>
+    <t>user_events_wide = \</t>
+  </si>
+  <si>
+    <t>    .groupby (['user_id', 'event_type'],).agg</t>
+  </si>
+  <si>
+    <t>    (   count =     pd.NamedAgg (column='start_time', aggfunc='count')</t>
+  </si>
+  <si>
+    <t>        , first =   pd.NamedAgg (column='start_time', aggfunc='min')</t>
+  </si>
+  <si>
+    <t>        , last =    pd.NamedAgg (column='start_time', aggfunc='max')</t>
+  </si>
+  <si>
+    <t>    .reset_index(1).assign</t>
+  </si>
+  <si>
+    <t>    (**{'gap': lambda df: get_event_gap (df)</t>
+  </si>
+  <si>
+    <t>    .set_index (['event_type'], append=True).unstack(level=1)</t>
+  </si>
+  <si>
+    <t>    .pipe (df_flatten_headers)</t>
+  </si>
+  <si>
+    <t>    (**{'tutorial_status':          lambda df: get_tutorial_status (df)</t>
+  </si>
+  <si>
+    <t>        , 'tutorial_after_level':   lambda df: df['last:tutorial_start'] &gt; df['first:level_choice']</t>
+  </si>
+  <si>
+    <t>user_events_wide.shape</t>
   </si>
 </sst>
 </file>
@@ -616,11 +768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CD3EB8-23C4-437C-A938-998C3FCB28B9}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M76" sqref="M76"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E127" sqref="E127:E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1711,7 +1863,7 @@
         <v>57</v>
       </c>
       <c r="J67" t="b">
-        <f t="shared" ref="J67:J76" si="3">A67=E67</f>
+        <f t="shared" ref="J67:J130" si="3">A67=E67</f>
         <v>1</v>
       </c>
       <c r="M67" t="s">
@@ -1891,6 +2043,10 @@
       <c r="E77" t="s">
         <v>45</v>
       </c>
+      <c r="J77" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="M77" t="s">
         <v>64</v>
       </c>
@@ -1900,147 +2056,1073 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J78" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R78" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J79" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R79" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J80" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R80" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" t="s">
+        <v>65</v>
+      </c>
+      <c r="J81" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R81" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" t="s">
+        <v>66</v>
+      </c>
+      <c r="J82" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R82" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J83" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R83" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" t="s">
+        <v>67</v>
+      </c>
+      <c r="J84" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R84" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" t="s">
+        <v>78</v>
+      </c>
+      <c r="J85" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R85" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" t="s">
+        <v>79</v>
+      </c>
+      <c r="J86" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R86" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" t="s">
+        <v>80</v>
+      </c>
+      <c r="J87" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R87" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" t="s">
+        <v>81</v>
+      </c>
+      <c r="J88" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R88" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" t="s">
+        <v>82</v>
+      </c>
+      <c r="J89" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R89" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" t="s">
+        <v>40</v>
+      </c>
+      <c r="J90" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R90" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J91" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R91" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92" t="s">
+        <v>68</v>
+      </c>
+      <c r="J92" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R92" t="b">
-        <f t="shared" ref="R92:R101" si="4">A92=M92</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="18:18" x14ac:dyDescent="0.3">
+        <f t="shared" ref="R92:R148" si="4">A92=M92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" t="s">
+        <v>69</v>
+      </c>
+      <c r="J93" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R93" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>70</v>
+      </c>
+      <c r="E94" t="s">
+        <v>70</v>
+      </c>
+      <c r="J94" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R94" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>71</v>
+      </c>
+      <c r="E95" t="s">
+        <v>71</v>
+      </c>
+      <c r="J95" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R95" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>72</v>
+      </c>
+      <c r="E96" t="s">
+        <v>72</v>
+      </c>
+      <c r="J96" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R96" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>73</v>
+      </c>
+      <c r="E97" t="s">
+        <v>73</v>
+      </c>
+      <c r="J97" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R97" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>74</v>
+      </c>
+      <c r="E98" t="s">
+        <v>74</v>
+      </c>
+      <c r="J98" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R98" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J99" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R99" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>75</v>
+      </c>
+      <c r="E100" t="s">
+        <v>75</v>
+      </c>
+      <c r="J100" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R100" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="18:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101" t="s">
+        <v>83</v>
+      </c>
+      <c r="J101" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="R101" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" t="s">
+        <v>84</v>
+      </c>
+      <c r="J102" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R102" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>85</v>
+      </c>
+      <c r="E103" t="s">
+        <v>85</v>
+      </c>
+      <c r="J103" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R103" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>86</v>
+      </c>
+      <c r="E104" t="s">
+        <v>86</v>
+      </c>
+      <c r="J104" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R104" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" t="s">
+        <v>76</v>
+      </c>
+      <c r="J105" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R105" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>87</v>
+      </c>
+      <c r="E106" t="s">
+        <v>87</v>
+      </c>
+      <c r="J106" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R106" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>88</v>
+      </c>
+      <c r="E107" t="s">
+        <v>88</v>
+      </c>
+      <c r="J107" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R107" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>89</v>
+      </c>
+      <c r="E108" t="s">
+        <v>89</v>
+      </c>
+      <c r="J108" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R108" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>76</v>
+      </c>
+      <c r="E109" t="s">
+        <v>76</v>
+      </c>
+      <c r="J109" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R109" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>90</v>
+      </c>
+      <c r="E110" t="s">
+        <v>90</v>
+      </c>
+      <c r="J110" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R110" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>91</v>
+      </c>
+      <c r="E111" t="s">
+        <v>91</v>
+      </c>
+      <c r="J111" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R111" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J112" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R112" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>77</v>
+      </c>
+      <c r="E113" t="s">
+        <v>77</v>
+      </c>
+      <c r="J113" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R113" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>92</v>
+      </c>
+      <c r="E114" t="s">
+        <v>92</v>
+      </c>
+      <c r="J114" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R114" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>93</v>
+      </c>
+      <c r="E115" t="s">
+        <v>93</v>
+      </c>
+      <c r="J115" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R115" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>94</v>
+      </c>
+      <c r="E116" t="s">
+        <v>94</v>
+      </c>
+      <c r="J116" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R116" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>95</v>
+      </c>
+      <c r="E117" t="s">
+        <v>95</v>
+      </c>
+      <c r="J117" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R117" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" t="s">
+        <v>96</v>
+      </c>
+      <c r="J118" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R118" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>76</v>
+      </c>
+      <c r="E119" t="s">
+        <v>76</v>
+      </c>
+      <c r="J119" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R119" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>97</v>
+      </c>
+      <c r="E120" t="s">
+        <v>97</v>
+      </c>
+      <c r="J120" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R120" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>98</v>
+      </c>
+      <c r="E121" t="s">
+        <v>98</v>
+      </c>
+      <c r="J121" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R121" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>99</v>
+      </c>
+      <c r="E122" t="s">
+        <v>99</v>
+      </c>
+      <c r="J122" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R122" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>76</v>
+      </c>
+      <c r="E123" t="s">
+        <v>76</v>
+      </c>
+      <c r="J123" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R123" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>100</v>
+      </c>
+      <c r="E124" t="s">
+        <v>100</v>
+      </c>
+      <c r="J124" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R124" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J125" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R125" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J126" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R126" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>101</v>
+      </c>
+      <c r="E127" t="s">
+        <v>101</v>
+      </c>
+      <c r="J127" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R127" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J128" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R128" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>104</v>
+      </c>
+      <c r="E129" t="s">
+        <v>104</v>
+      </c>
+      <c r="J129" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R129" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>79</v>
+      </c>
+      <c r="E130" t="s">
+        <v>79</v>
+      </c>
+      <c r="J130" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R130" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>105</v>
+      </c>
+      <c r="E131" t="s">
+        <v>105</v>
+      </c>
+      <c r="J131" t="b">
+        <f t="shared" ref="J131:J148" si="5">A131=E131</f>
+        <v>1</v>
+      </c>
+      <c r="R131" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>106</v>
+      </c>
+      <c r="E132" t="s">
+        <v>106</v>
+      </c>
+      <c r="J132" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R132" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" t="s">
+        <v>107</v>
+      </c>
+      <c r="J133" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R133" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>108</v>
+      </c>
+      <c r="E134" t="s">
+        <v>108</v>
+      </c>
+      <c r="J134" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R134" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>76</v>
+      </c>
+      <c r="E135" t="s">
+        <v>76</v>
+      </c>
+      <c r="J135" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R135" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>109</v>
+      </c>
+      <c r="E136" t="s">
+        <v>109</v>
+      </c>
+      <c r="J136" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R136" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>110</v>
+      </c>
+      <c r="E137" t="s">
+        <v>110</v>
+      </c>
+      <c r="J137" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R137" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="J138" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R138" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>111</v>
+      </c>
+      <c r="E139" t="s">
+        <v>111</v>
+      </c>
+      <c r="J139" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R139" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>112</v>
+      </c>
+      <c r="E140" t="s">
+        <v>112</v>
+      </c>
+      <c r="J140" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R140" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>102</v>
+      </c>
+      <c r="E141" t="s">
+        <v>102</v>
+      </c>
+      <c r="J141" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R141" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>113</v>
+      </c>
+      <c r="E142" t="s">
+        <v>113</v>
+      </c>
+      <c r="J142" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R142" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" t="s">
+        <v>114</v>
+      </c>
+      <c r="J143" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R143" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="J144" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R144" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>40</v>
+      </c>
+      <c r="E145" t="s">
+        <v>40</v>
+      </c>
+      <c r="J145" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R145" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J146" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R146" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>115</v>
+      </c>
+      <c r="E147" t="s">
+        <v>115</v>
+      </c>
+      <c r="J147" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R147" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>103</v>
+      </c>
+      <c r="E148" t="s">
+        <v>103</v>
+      </c>
+      <c r="J148" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R148" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
